--- a/Resources/Stage/0001.xlsx
+++ b/Resources/Stage/0001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T20"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -374,7 +374,7 @@
     <col min="1" max="20" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -414,29 +414,8 @@
       <c r="M1">
         <v>1</v>
       </c>
-      <c r="N1">
-        <v>1</v>
-      </c>
-      <c r="O1">
-        <v>1</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>1</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,31 +453,10 @@
         <v>-1</v>
       </c>
       <c r="M2">
-        <v>-1</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -536,31 +494,10 @@
         <v>-1</v>
       </c>
       <c r="M3">
-        <v>-1</v>
-      </c>
-      <c r="N3">
-        <v>-1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -598,31 +535,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -660,31 +576,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -695,19 +590,19 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -722,31 +617,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -760,16 +634,16 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -784,31 +658,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -819,7 +672,7 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,31 +699,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -881,7 +713,7 @@
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,31 +740,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -943,7 +754,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,43 +769,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>-1</v>
-      </c>
-      <c r="Q10">
-        <v>-1</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1005,7 +795,7 @@
         <v>-1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1032,31 +822,10 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>-1</v>
-      </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1082,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1094,31 +863,10 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>-1</v>
-      </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1144,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1156,31 +904,10 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1206,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1218,31 +945,10 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1268,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1280,31 +986,10 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15">
-        <v>-1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1330,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1342,281 +1027,53 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
-      </c>
-      <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>-1</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19">
-        <v>-1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>-1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:T20">
+  <conditionalFormatting sqref="E8:M10 A8:D11 A1:M7 M11:M17 E11:L11 A12:L17">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>3</formula>
       <formula>5</formula>
